--- a/dados/Capacidade.xlsx
+++ b/dados/Capacidade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\Python\Roteirizador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\PycharmProjects\roteirizador\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F066A-968D-4B10-8852-22128DCF05E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545DBBE0-6ABF-44C7-BD6E-620FDC52CCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A03FA497-3E89-4F15-9151-354F942FA67E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Placa</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>RUN-5C30</t>
+  </si>
+  <si>
+    <t>RUN-5C35</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +484,7 @@
       </c>
       <c r="C2">
         <f>IF(D2="","",COUNTIF(D2:D101,D2))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>IFERROR(VLOOKUP(B2,Quantidade!A:B,2,0),"")</f>
@@ -497,7 +500,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">IF(D3="","",COUNTIF(D3:D102,D3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP(B3,Quantidade!A:B,2,0),"")</f>
@@ -505,13 +508,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IFERROR(VLOOKUP(B4,Quantidade!A:B,2,0),"")</f>
-        <v/>
+        <v>p7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,7 +1678,7 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Placas!D:D,Quantidade!B3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/dados/Capacidade.xlsx
+++ b/dados/Capacidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\PycharmProjects\roteirizador\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545DBBE0-6ABF-44C7-BD6E-620FDC52CCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63192800-B15E-4EE0-803C-4BF9C4E11243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A03FA497-3E89-4F15-9151-354F942FA67E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Placa</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>RUN-5C30</t>
-  </si>
-  <si>
-    <t>RUN-5C35</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +481,7 @@
       </c>
       <c r="C2">
         <f>IF(D2="","",COUNTIF(D2:D101,D2))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>IFERROR(VLOOKUP(B2,Quantidade!A:B,2,0),"")</f>
@@ -500,7 +497,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">IF(D3="","",COUNTIF(D3:D102,D3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP(B3,Quantidade!A:B,2,0),"")</f>
@@ -508,19 +505,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="D4" s="2" t="str">
         <f>IFERROR(VLOOKUP(B4,Quantidade!A:B,2,0),"")</f>
-        <v>p7</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,7 +1669,7 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Placas!D:D,Quantidade!B3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/dados/Capacidade.xlsx
+++ b/dados/Capacidade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\PycharmProjects\roteirizador\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beep Saude\Desktop\RoteirizadorAMBEV\RoteirizadorAMBEV\PlanRoad\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63192800-B15E-4EE0-803C-4BF9C4E11243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9990BD-3D29-40C9-86B9-C6D6713AFFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A03FA497-3E89-4F15-9151-354F942FA67E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A03FA497-3E89-4F15-9151-354F942FA67E}"/>
   </bookViews>
   <sheets>
     <sheet name="Placas" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Placa</t>
   </si>
@@ -83,10 +83,7 @@
     <t>Diarista 8 - 14</t>
   </si>
   <si>
-    <t>RUN-5C09</t>
-  </si>
-  <si>
-    <t>RUN-5C30</t>
+    <t>RNH0D65</t>
   </si>
 </sst>
 </file>
@@ -449,16 +446,16 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="2" max="2" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,39 +469,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <f>IF(D2="","",COUNTIF(D2:D101,D2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>IFERROR(VLOOKUP(B2,Quantidade!A:B,2,0),"")</f>
-        <v>p7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+        <v>d6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(D3="","",COUNTIF(D3:D102,D3))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP(B3,Quantidade!A:B,2,0),"")</f>
-        <v>p7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -514,7 +505,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -524,7 +515,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -534,7 +525,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -544,7 +535,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -554,7 +545,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -564,7 +555,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" t="str">
         <f>IF(D10="","",COUNTIF(D10:D109,D10))</f>
         <v/>
@@ -574,7 +565,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -584,7 +575,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -594,7 +585,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -604,7 +595,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -614,7 +605,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -624,7 +615,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -634,7 +625,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -644,7 +635,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -654,7 +645,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -664,7 +655,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -674,7 +665,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -684,7 +675,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -694,7 +685,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -704,7 +695,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -714,7 +705,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -724,7 +715,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -734,7 +725,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -744,7 +735,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -754,7 +745,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -764,7 +755,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -774,7 +765,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -784,7 +775,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -794,7 +785,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -804,7 +795,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -814,7 +805,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -824,7 +815,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -834,7 +825,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -844,7 +835,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -854,7 +845,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -864,7 +855,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -874,7 +865,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -884,7 +875,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -894,7 +885,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -904,7 +895,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -914,7 +905,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -924,7 +915,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -934,7 +925,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -944,7 +935,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -954,7 +945,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -964,7 +955,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -974,7 +965,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -984,7 +975,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -994,7 +985,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1004,7 +995,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1014,7 +1005,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1024,7 +1015,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1034,7 +1025,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1044,7 +1035,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1054,7 +1045,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1064,7 +1055,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1074,7 +1065,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1084,7 +1075,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1094,7 +1085,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1104,7 +1095,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1114,7 +1105,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1124,7 +1115,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1134,7 +1125,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="str">
         <f t="shared" ref="C67:C113" si="1">IF(D67="","",COUNTIF(D67:D166,D67))</f>
         <v/>
@@ -1144,7 +1135,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1154,7 +1145,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1164,7 +1155,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1174,7 +1165,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1184,7 +1175,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1194,7 +1185,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1204,7 +1195,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1214,7 +1205,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1224,7 +1215,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1234,7 +1225,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1244,7 +1235,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1254,7 +1245,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1264,7 +1255,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1274,7 +1265,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1284,7 +1275,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1294,7 +1285,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1304,7 +1295,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1314,7 +1305,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1324,7 +1315,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1334,7 +1325,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1344,7 +1335,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1354,7 +1345,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1364,7 +1355,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1374,7 +1365,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1384,7 +1375,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1394,7 +1385,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1404,7 +1395,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1414,7 +1405,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1424,7 +1415,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1434,7 +1425,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1444,7 +1435,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1454,7 +1445,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1464,7 +1455,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1474,7 +1465,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1484,7 +1475,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1494,7 +1485,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1504,7 +1495,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1514,7 +1505,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1524,7 +1515,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1534,7 +1525,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1544,7 +1535,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1554,7 +1545,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1564,7 +1555,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1574,7 +1565,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1584,7 +1575,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1594,7 +1585,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1631,13 +1622,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +1639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1669,10 +1660,10 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Placas!D:D,Quantidade!B3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1684,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1693,10 +1684,10 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Placas!D:D,Quantidade!B5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>

--- a/dados/Capacidade.xlsx
+++ b/dados/Capacidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beep Saude\Desktop\RoteirizadorAMBEV\RoteirizadorAMBEV\PlanRoad\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9990BD-3D29-40C9-86B9-C6D6713AFFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B43A5-2FD3-40EC-B75F-32F75CF1E686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A03FA497-3E89-4F15-9151-354F942FA67E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Placa</t>
   </si>
@@ -83,7 +83,10 @@
     <t>Diarista 8 - 14</t>
   </si>
   <si>
-    <t>RNH0D65</t>
+    <t>RUN5C52</t>
+  </si>
+  <si>
+    <t>RUN5B64</t>
   </si>
 </sst>
 </file>
@@ -474,25 +477,31 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <f>IF(D2="","",COUNTIF(D2:D101,D2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>IFERROR(VLOOKUP(B2,Quantidade!A:B,2,0),"")</f>
-        <v>d6</v>
+        <v>p7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3" t="str">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <f t="shared" ref="C3:C66" si="0">IF(D3="","",COUNTIF(D3:D102,D3))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP(B3,Quantidade!A:B,2,0),"")</f>
-        <v/>
+        <v>p7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1660,7 +1669,7 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Placas!D:D,Quantidade!B3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1684,7 +1693,7 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Placas!D:D,Quantidade!B5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/dados/Capacidade.xlsx
+++ b/dados/Capacidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beep Saude\Desktop\RoteirizadorAMBEV\RoteirizadorAMBEV\PlanRoad\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B43A5-2FD3-40EC-B75F-32F75CF1E686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDDA671-5C5C-4BA3-84AF-8F0D58B93606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A03FA497-3E89-4F15-9151-354F942FA67E}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dados/Capacidade.xlsx
+++ b/dados/Capacidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beep Saude\Desktop\RoteirizadorAMBEV\RoteirizadorAMBEV\PlanRoad\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDDA671-5C5C-4BA3-84AF-8F0D58B93606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D182006-8F1A-4458-8431-87D75083A7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A03FA497-3E89-4F15-9151-354F942FA67E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Placa</t>
   </si>
@@ -83,10 +83,7 @@
     <t>Diarista 8 - 14</t>
   </si>
   <si>
-    <t>RUN5C52</t>
-  </si>
-  <si>
-    <t>RUN5B64</t>
+    <t>RTC8F90</t>
   </si>
 </sst>
 </file>
@@ -116,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,19 +121,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -449,7 +499,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,35 +523,29 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <f>IF(D2="","",COUNTIF(D2:D101,D2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>IFERROR(VLOOKUP(B2,Quantidade!A:B,2,0),"")</f>
-        <v>p7</v>
+        <v>d8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(D3="","",COUNTIF(D3:D102,D3))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP(B3,Quantidade!A:B,2,0),"")</f>
-        <v>p7</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1606,6 +1650,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -1669,7 +1717,7 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Placas!D:D,Quantidade!B3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1681,7 +1729,7 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Placas!D:D,Quantidade!B4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/dados/Capacidade.xlsx
+++ b/dados/Capacidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beep Saude\Desktop\RoteirizadorAMBEV\RoteirizadorAMBEV\PlanRoad\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D182006-8F1A-4458-8431-87D75083A7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FEFED0-D11D-42C2-B019-030CDB70E273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A03FA497-3E89-4F15-9151-354F942FA67E}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Diarista 8 - 14</t>
   </si>
   <si>
-    <t>RTC8F90</t>
+    <t>RNS0H99</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1651,8 +1651,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dados/Capacidade.xlsx
+++ b/dados/Capacidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beep Saude\Desktop\RoteirizadorAMBEV\RoteirizadorAMBEV\PlanRoad\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FEFED0-D11D-42C2-B019-030CDB70E273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11BE3A9-8C3F-4461-BBC2-ADFC2F1D5545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A03FA497-3E89-4F15-9151-354F942FA67E}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Diarista 8 - 14</t>
   </si>
   <si>
-    <t>RNS0H99</t>
+    <t>BEP2H98</t>
   </si>
 </sst>
 </file>
@@ -145,27 +145,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -499,7 +479,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <f>IF(D2="","",COUNTIF(D2:D101,D2))</f>
@@ -535,7 +515,7 @@
       </c>
       <c r="D2" s="2" t="str">
         <f>IFERROR(VLOOKUP(B2,Quantidade!A:B,2,0),"")</f>
-        <v>d8</v>
+        <v>d6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1651,8 +1631,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1729,7 +1709,7 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Placas!D:D,Quantidade!B4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1741,7 +1721,7 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Placas!D:D,Quantidade!B5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/dados/Capacidade.xlsx
+++ b/dados/Capacidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beep Saude\Desktop\RoteirizadorAMBEV\RoteirizadorAMBEV\PlanRoad\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11BE3A9-8C3F-4461-BBC2-ADFC2F1D5545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03BC7F2-FE99-4C5B-A3FD-24688395F0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A03FA497-3E89-4F15-9151-354F942FA67E}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Diarista 8 - 14</t>
   </si>
   <si>
-    <t>BEP2H98</t>
+    <t>RFQ4F34</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dados/Capacidade.xlsx
+++ b/dados/Capacidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beep Saude\Desktop\RoteirizadorAMBEV\RoteirizadorAMBEV\PlanRoad\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03BC7F2-FE99-4C5B-A3FD-24688395F0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E223C65-C9F6-417D-9DE6-7B80C3FDF743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A03FA497-3E89-4F15-9151-354F942FA67E}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Diarista 8 - 14</t>
   </si>
   <si>
-    <t>RFQ4F34</t>
+    <t>RTC8F86</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
